--- a/tables/regression_tables.xlsx
+++ b/tables/regression_tables.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -59,64 +59,64 @@
     <t xml:space="preserve">did</t>
   </si>
   <si>
-    <t xml:space="preserve">modelsummary_tmp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,254***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,095**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,215**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,224**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,495***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,479**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,458**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelsummary_tmp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,031)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,076)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,078)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,167)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,162)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,203)</t>
+    <t xml:space="preserve">estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.254***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.095**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.215**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.224**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.495***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.479**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.458**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std.error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.076)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.078)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.156)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.167)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.203)</t>
   </si>
   <si>
     <t xml:space="preserve">excessd_rate</t>
@@ -125,112 +125,112 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-0,132***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,131***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,216*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,143***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,142***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,222**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,033)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,104)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,094)</t>
+    <t xml:space="preserve">-0.132***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.131***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.216*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.143***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.142***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.222**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.104)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.094)</t>
   </si>
   <si>
     <t xml:space="preserve">job_change</t>
   </si>
   <si>
-    <t xml:space="preserve">0,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,000)</t>
+    <t xml:space="preserve">0.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)</t>
   </si>
   <si>
     <t xml:space="preserve">v_deaths</t>
   </si>
   <si>
-    <t xml:space="preserve">0,001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,009)</t>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.009)</t>
   </si>
   <si>
     <t xml:space="preserve">robbery</t>
   </si>
   <si>
-    <t xml:space="preserve">0,001**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,001)</t>
+    <t xml:space="preserve">0.001**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
   </si>
   <si>
     <t xml:space="preserve">transit_acc</t>
   </si>
   <si>
-    <t xml:space="preserve">0,003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,003)</t>
+    <t xml:space="preserve">0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
   </si>
   <si>
     <t xml:space="preserve">vax_leastone</t>
   </si>
   <si>
-    <t xml:space="preserve">-0,003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,004</t>
+    <t xml:space="preserve">-0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.004</t>
   </si>
   <si>
     <t xml:space="preserve">time_cont</t>
   </si>
   <si>
-    <t xml:space="preserve">0,058**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0,017)</t>
+    <t xml:space="preserve">0.058**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.017)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -242,190 +242,28 @@
     <t xml:space="preserve">576</t>
   </si>
   <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 Adj.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 Within</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2 Pseudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">685,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1565,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">667,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">669,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1140,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">856,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1352,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">842,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">843,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1158,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">894,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2824,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">898,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">904,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1275,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1065,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2611,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1073,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1078,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1293,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log.Lik.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-294,837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-493,723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-280,956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-280,482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-539,095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-380,385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-387,278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-368,208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-367,638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-548,062</t>
+    <t xml:space="preserve">RMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63</t>
   </si>
   <si>
     <t xml:space="preserve">Std.Errors</t>
@@ -440,10 +278,10 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">FE: monthyear</t>
+  </si>
+  <si>
     <t xml:space="preserve">FE: province^month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE: monthyear</t>
   </si>
 </sst>
 </file>
@@ -1542,16 +1380,16 @@
         <v>81</v>
       </c>
       <c r="J19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" t="s">
         <v>83</v>
-      </c>
-      <c r="L19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -1559,40 +1397,40 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -1600,40 +1438,40 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -1641,37 +1479,37 @@
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
         <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="M22" t="s">
         <v>36</v>
@@ -1682,285 +1520,39 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" t="s">
-        <v>123</v>
-      </c>
-      <c r="K24" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" t="s">
-        <v>132</v>
-      </c>
-      <c r="I25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" t="s">
-        <v>135</v>
-      </c>
-      <c r="L25" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" t="s">
-        <v>139</v>
-      </c>
-      <c r="L26" t="s">
-        <v>139</v>
-      </c>
-      <c r="M26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" t="s">
-        <v>141</v>
-      </c>
-      <c r="M29" t="s">
         <v>36</v>
       </c>
     </row>
